--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2158.702910715805</v>
+        <v>429581.879232445</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2158.702910715805</v>
+        <v>429581.879232445</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90680.01242782753</v>
+        <v>6352278.397167813</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90680.01242782753</v>
+        <v>6352278.397167813</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609976077.760067</v>
+        <v>58453870.85739856</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16973.52415858436</v>
+        <v>1381755.502027318</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32764.58655409933</v>
+        <v>2559829.272391209</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48563.44234753279</v>
+        <v>3737903.042755099</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65399.36060785598</v>
+        <v>4843078.761938478</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81528.74564199144</v>
+        <v>6019900.570405986</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97658.13067612689</v>
+        <v>7196722.378873494</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113787.5157102624</v>
+        <v>8373544.187340994</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>129916.9007443978</v>
+        <v>9550365.995808493</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146293.8432836061</v>
+        <v>10678542.4953458</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>162689.6227774534</v>
+        <v>11815280.45626902</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>179085.4022713006</v>
+        <v>12952018.41719224</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195481.181765148</v>
+        <v>14088756.37811547</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>211876.9612589952</v>
+        <v>15225494.3390387</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>228289.0650103246</v>
+        <v>16360667.91978815</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>245731.4354944165</v>
+        <v>17363916.10887918</v>
       </c>
     </row>
   </sheetData>
